--- a/dist/assets/BOs/Ra.xlsx
+++ b/dist/assets/BOs/Ra.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3499D2B5-B7BB-4DDE-8FED-0F133AAA41D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10820A3B-2313-4310-86B4-F7703081A2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="7" r:id="rId1"/>
-    <sheet name="Feuil4" sheetId="5" r:id="rId2"/>
-    <sheet name="Feuil5" sheetId="6" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="8" r:id="rId2"/>
+    <sheet name="Feuil4" sheetId="5" r:id="rId3"/>
+    <sheet name="Feuil5" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="88">
   <si>
     <t>Archaic</t>
   </si>
@@ -744,17 +745,238 @@
   </si>
   <si>
     <t>Focus on securing 2nd Goldmine with Migdol</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/ 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial vills: 
+2 to Food
+1 to Monument (in Gold/Food/Wood coverage), then chop 20 wood, then to Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decide on what food you have, if you need to shoot down a rhino use 3, if its deer shoot two with TC, 2 food + 1 monument. </t>
+  </si>
+  <si>
+    <t>Pharao empower Food
+Priest empowers: Monument -&gt; Mining Camp -&gt; make obelisks when you have 10 Gold</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Research Pickaxe when 120 Wood</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 2 / 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 4 / 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Vills transition:
+Once enough Gold, make Temple with 4 Gold villagers, then back to Gold</t>
+  </si>
+  <si>
+    <t>Pharao empower Monument when you start building Temple. Don't miss drops -&gt; check villager's food amount before moving Pharaoh.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 / 0 / 4 / 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ 1 Builder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 + 1 Builder</t>
+    </r>
+  </si>
+  <si>
+    <t>Option: Classical Pressure</t>
+  </si>
+  <si>
+    <t>Vills transition:
+4 Food / 5 Gold / 3 Wood / 1 Builder</t>
+  </si>
+  <si>
+    <t>FH - By Jollyman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -924,6 +1146,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -961,75 +1191,84 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1248,267 +1487,253 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB3B2E0-FE9F-4A45-9E1D-532F03D0A0F6}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:D27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999">
-      <c r="A1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6">
-      <c r="A2" s="20" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:4" ht="13.8">
-      <c r="A3" s="25" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:4" ht="110.4">
-      <c r="A4" s="31" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:4" ht="114.75">
+      <c r="A4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="138">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:4" ht="142.5">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:4" ht="13.8">
-      <c r="A6" s="31" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="34"/>
-    </row>
-    <row r="7" spans="1:4" ht="13.8">
-      <c r="A7" s="31" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="207">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:4" ht="214.5">
+      <c r="A8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="262.2">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:4" ht="285.75">
+      <c r="A9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.8">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:4" ht="13.8">
-      <c r="A11" s="25" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:4" ht="13.8">
-      <c r="A12" s="25" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:4" ht="13.8">
-      <c r="A13" s="25" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.6">
-      <c r="A14" s="20" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:4" ht="13.8">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="1:4" ht="110.4">
-      <c r="A16" s="25"/>
-      <c r="B16" s="33" t="s">
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:4" ht="114">
+      <c r="A16" s="18"/>
+      <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4" ht="13.8">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="27"/>
-    </row>
-    <row r="19" spans="1:4" ht="13.8">
-      <c r="A19" s="25" t="s">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.6">
-      <c r="A20" s="20" t="s">
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75">
+      <c r="A20" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" ht="165.6">
-      <c r="A21" s="28" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="1:4" ht="171">
+      <c r="A21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:4" ht="15.75">
+      <c r="A22" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="35" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="30"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="A24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="15">
-      <c r="A25" s="29"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="A25" s="5"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="30"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="A26" s="6"/>
     </row>
     <row r="27" spans="1:4" ht="15">
-      <c r="A27" s="29"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="A27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1524,6 +1749,256 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0317FDF-56B6-4B4D-B8EC-6E2022355F40}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:4" ht="200.25">
+      <c r="A4" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25">
+      <c r="A5" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:4" ht="228.75">
+      <c r="A9" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:4" ht="114">
+      <c r="A14" s="29"/>
+      <c r="B14" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="30"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="28"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="36"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="25"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="33"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="33"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="35"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="34"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="35"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="34"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A21:D21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEC1EB1-E737-4FC1-A768-555B450D57EE}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -1531,25 +2006,25 @@
       <selection activeCell="D7" sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:4" ht="13.8">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1557,7 +2032,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="138">
+    <row r="4" spans="1:4" ht="157.5">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1571,7 +2046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.8">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -1581,7 +2056,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="13.8">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -1591,7 +2066,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="151.80000000000001">
+    <row r="7" spans="1:4" ht="171.75">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -1603,21 +2078,21 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-    </row>
-    <row r="9" spans="1:4" ht="13.8">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="124.2">
+    <row r="10" spans="1:4" ht="128.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1631,21 +2106,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:4" ht="13.8">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="8"/>
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.8">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="11"/>
@@ -1658,10 +2133,10 @@
       <c r="A15" s="7"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="21"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="4"/>
@@ -1697,7 +2172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BE4142-F790-413B-91A7-FA09476BE6B8}">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -1705,25 +2180,25 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:4" ht="13.8">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -1731,7 +2206,7 @@
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="1:4" ht="138">
+    <row r="4" spans="1:4" ht="157.5">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1745,7 +2220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.8">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -1757,7 +2232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="165.6">
+    <row r="6" spans="1:4" ht="186">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
@@ -1769,7 +2244,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="220.8">
+    <row r="7" spans="1:4" ht="242.25">
       <c r="A7" s="8" t="s">
         <v>33</v>
       </c>
@@ -1781,7 +2256,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="193.2">
+    <row r="8" spans="1:4" ht="228.75">
       <c r="A8" s="8" t="s">
         <v>35</v>
       </c>
@@ -1793,21 +2268,21 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:4" ht="13.8">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:4" ht="82.8">
+    <row r="11" spans="1:4" ht="100.5">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1821,15 +2296,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:4" ht="13.8">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="16"/>
       <c r="C13" s="17" t="s">
         <v>28</v>
@@ -1838,7 +2313,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.8">
+    <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="11"/>
@@ -1851,10 +2326,10 @@
       <c r="A16" s="7"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="23"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="4"/>
